--- a/finalCodes/data.xlsx
+++ b/finalCodes/data.xlsx
@@ -486,74 +486,69 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Susan Sujakhu</t>
+          <t>Kajol Dhaubanjar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>O+</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9866297369</t>
+          <t>1234567890</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bhaktapur</t>
+          <t>BKT</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Bhaktapur</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Nothing</t>
+          <t>BKT</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>F:/8thproject/3.png</t>
+          <t>F:/8thproject/2.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>KL Grade : 3 with value 97.99</t>
+          <t>KL Grade : 2 with value 75.35</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>06-08-2021-12-47-39</t>
+          <t>06-08-2021-12-51-27</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kajol Dhaubanjar</t>
+          <t>Kajol Dhaubanjarzs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -586,31 +581,21 @@
           <t>BKT</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>F:/8thproject/2.png</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>KL Grade : 2 with value 75.35</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>06-08-2021-12-51-27</t>
+          <t>08-08-2021-23-29-04</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kajol Dhaubanjarzs</t>
+          <t>Kabita Duwal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -620,7 +605,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -630,34 +615,49 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1234567890</t>
+          <t>9803013116</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>BKT</t>
+          <t>Libali</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>BKT</t>
+          <t>Bhaktapur</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>dvvdvxv</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>E:/8th sem project/Project Final/final-project/3.png</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>KL Grade : 3 with value 97.99</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>08-08-2021-23-29-04</t>
+          <t>10-08-2021-13-31-15</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kabita Duwal</t>
+          <t>Kajol`</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -677,12 +677,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9803013116</t>
+          <t>9866297095</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Libali</t>
+          <t>Nikoshera</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -690,24 +690,19 @@
           <t>Bhaktapur</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>dvvdvxv</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>E:/8th sem project/Project Final/final-project/3.png</t>
+          <t>G:/8thproject/dataset/Knee X-ray Images/MedicalExpert-I/1Doubtful/DoubtfulG1 (11).png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>KL Grade : 3 with value 97.99</t>
+          <t>KL Grade : 2 with value 73.84</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>10-08-2021-13-31-15</t>
+          <t>23-09-2021-08-36-07</t>
         </is>
       </c>
     </row>
